--- a/model_exports/labels/2.0_False_False_4_0.xlsx
+++ b/model_exports/labels/2.0_False_False_4_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C732"/>
+  <dimension ref="A1:C733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-933792655041064962</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-495123711071387649</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-509432328561885184</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-610974241895354368</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-627039115188383744</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-690710236638777344</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-690724653006921728</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,7 +570,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-1047160746386382848</t>
+          <t>t-706805466739949568</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-497136108463865857</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,33 +596,33 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,7 +648,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -661,7 +661,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,33 +674,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-686267623462408192</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,24 +726,24 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-693851248634810368</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,37 +765,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-775697386924445696</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,20 +804,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,46 +830,46 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-865644367372967936</t>
+          <t>t-871116400701706241</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-866152720700514304</t>
+          <t>t-871834189787791364</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-893450286144131072</t>
+          <t>t-872075702203559936</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-937797554313551873</t>
+          <t>t-872158265681096708</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -882,7 +882,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-937878737382772737</t>
+          <t>t-887086137789091841</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -895,7 +895,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-938887720075702272</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,11 +908,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -921,7 +921,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-1024388985282383872</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,7 +934,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-499691919128018944</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,33 +947,33 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-694987975168495617</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-1026541253037453312</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-1026546271392165888</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -1012,50 +1012,50 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-1026556162186117121</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-1026678249978585088</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-1026720073308925953</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-533166195508117505</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -1064,20 +1064,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-573406774969044992</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-573566918876995584</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-574621995633111040</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,11 +1103,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-982113517636435969</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1116,20 +1116,20 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-982126921570893825</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-1003697920015851520</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-641417749898522624</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,76 +1155,76 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1028763648074940416</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1028815266174517249</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1028873828355780608</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1029034881769197569</t>
+          <t>t-1010157701769281538</t>
         </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1029100538422587393</t>
+          <t>t-745595825670131714</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-745600923448258560</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1012224879310057472</t>
+          <t>t-764602141449170944</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,20 +1259,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-533166195508117505</t>
+          <t>t-885277243991314432</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-885292685086646272</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,46 +1285,46 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,20 +1337,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,24 +1363,24 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-756129418616139777</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -1389,24 +1389,24 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-876870634885844994</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>1</v>
@@ -1415,11 +1415,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-610241505777856512</t>
+          <t>t-876897987485630464</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -1428,7 +1428,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-610629417715412992</t>
+          <t>t-876995236253376512</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,33 +1441,33 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,24 +1480,24 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-1050075728891535361</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-1050076017593745408</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1506,11 +1506,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-747995724978192384</t>
+          <t>t-1050077658590134272</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-903082857492566018</t>
+          <t>t-1050092626786037760</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -1532,11 +1532,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1016140956322713601</t>
+          <t>t-1050210928594173952</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-1050446607055896576</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,85 +1558,85 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-1051200746312663040</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-548325093256884224</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-611854657594486784</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,37 +1649,37 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1688,24 +1688,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-519554920140124160</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1714,50 +1714,50 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-1000477141224558594</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -1766,20 +1766,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-568441199297761281</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-568878359158984704</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-630358013853990912</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,11 +1805,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-956627624150880257</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,7 +1844,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1042485319055155201</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,24 +1935,24 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-841795901764993024</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-841877177624850434</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1961,33 +1961,33 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-872693400436219904</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2026,7 +2026,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -2039,50 +2039,50 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-778616752993214464</t>
+          <t>t-863530798334476291</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-1022207950511923200</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-985892254756884480</t>
+          <t>t-1062308914354642944</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-1022207950511923200</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-598299676807340033</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,63 +2117,63 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-598299676807340033</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -2182,24 +2182,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-607855197835149312</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-698546841881853953</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,24 +2208,24 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-849724022598139904</t>
         </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-891497407179104257</t>
+          <t>t-878162982953402368</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -2234,37 +2234,37 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-891497407179104257</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-973190028435353600</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2273,20 +2273,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B142" t="n">
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-828748393916809216</t>
+          <t>t-756982430985166848</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,37 +2299,37 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-829760036348035072</t>
+          <t>t-756983738035077120</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-784477844240011265</t>
+          <t>t-757172169029804034</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-828748393916809216</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-829760036348035072</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,24 +2364,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-784477844240011265</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -2390,11 +2390,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-695269003892228096</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,20 +2403,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-707739170878439424</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,72 +2442,72 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-872405308236337153</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-780856348493832192</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B158" t="n">
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-799981773354463232</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,7 +2520,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-799998393695305728</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,7 +2533,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-800091318642950144</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,46 +2559,46 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-1054403005032947712</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-924790802882146304</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,37 +2611,37 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-1050435927066198018</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-660036667412082688</t>
+          <t>t-898040952396193792</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-660641499701489665</t>
+          <t>t-898113774225301505</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,11 +2663,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-682987194840150016</t>
+          <t>t-662196453281038336</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -2676,20 +2676,20 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-726041703153545216</t>
+          <t>t-708426270242164736</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-726754497737826305</t>
+          <t>t-726041703153545216</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,20 +2702,20 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-726754497737826305</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-737800453916897280</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,46 +2754,46 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-833578679338942464</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-859901667361345536</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-817334752848056320</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-817481338974507010</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-858067034772566016</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-858109132586483713</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,20 +2845,20 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-894616667350872064</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-895668017060651009</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,20 +2871,20 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-900495545885757441</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-900708018983227393</t>
+          <t>t-925358435398488064</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -2897,7 +2897,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -2910,20 +2910,20 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-1047282657053298690</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-1047282657053298690</t>
+          <t>t-578194227852505088</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1050012662120235008</t>
+          <t>t-634745305263640576</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,24 +2949,24 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-533407970244456448</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B197" t="n">
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,59 +3027,59 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-643122505524322304</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-727306437798576130</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1029525697382047746</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>1</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1029541696839798791</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,37 +3092,37 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1029769212384948225</t>
+          <t>t-1016850546236542983</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>1</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-1035948096843395073</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-605776092780044291</t>
+          <t>t-1054153981998575616</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-534896855906537472</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,20 +3183,20 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-580289963599765504</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,20 +3209,20 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -3235,7 +3235,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-721969035412422656</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-722671206881746944</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,7 +3261,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-845940693256286208</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -3274,24 +3274,24 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-783921439044841474</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-784017385615265792</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -3300,20 +3300,20 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-784336997477261312</t>
+          <t>t-903255663417204736</t>
         </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-784835805999198208</t>
+          <t>t-836430214368481288</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-702894496737071105</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-951353773321945088</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,7 +3391,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-951370648210767877</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-685265326112559104</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,37 +3443,37 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-659041979200880644</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-592720340289224705</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-636560790015877120</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-636561226298970112</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,59 +3495,59 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-655077150693990401</t>
+          <t>t-636561581355204609</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-636600809573220352</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-636742652692688896</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-565107354606518272</t>
         </is>
       </c>
       <c r="B239" t="n">
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-702894496737071105</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,11 +3560,11 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-736272987683426305</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,20 +3612,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-755764875155083264</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,7 +3638,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,7 +3703,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B252" t="n">
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-891969624929075201</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-892105609071349760</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,11 +3742,11 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-573292412430376960</t>
+          <t>t-892129259686428672</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -3755,11 +3755,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-632590097284734976</t>
+          <t>t-894726430050754561</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-884449137407791104</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,7 +3794,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-885109132638003200</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-885140571232374784</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-885166687825350662</t>
+          <t>t-984138305477505025</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-885188751936417793</t>
+          <t>t-1049061003617607680</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,11 +3846,11 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-1049351090909667329</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-899250634855251968</t>
+          <t>t-1050209065153036288</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,11 +3872,11 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -3885,7 +3885,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-968874912806068224</t>
+          <t>t-798356661148655616</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,20 +3911,20 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-981529575271337984</t>
+          <t>t-798650812511588352</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-897976904019476481</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-578003881596215296</t>
+          <t>t-900702851202207746</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,33 +3950,33 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-887375379186548736</t>
+          <t>t-831479807821103104</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-831825002534154241</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,20 +3989,20 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-901999787855228933</t>
+          <t>t-609166003570802689</t>
         </is>
       </c>
       <c r="B274" t="n">
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-902015237951549441</t>
+          <t>t-873677712304463872</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,7 +4015,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-906773843066441728</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,20 +4028,20 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-906922961621454848</t>
+          <t>t-599007393494605824</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-906981528483364865</t>
+          <t>t-599125027116568576</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,59 +4054,59 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-906982446905876480</t>
+          <t>t-851578277311373312</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-860258475883937792</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,24 +4132,24 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-1041460734738063360</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-1041507023660081152</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-1049670308142206978</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-893133071528202241</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-1049725086469685248</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>0</v>
@@ -4197,20 +4197,20 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-935929183758356480</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B290" t="n">
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-822759706078969856</t>
+          <t>t-631280418583658496</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-822817083591446532</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-910191038052077569</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,20 +4262,20 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-983744396364480512</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-644964294954741760</t>
+          <t>t-886426015374946304</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,37 +4301,37 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
         <v>0</v>
@@ -4353,20 +4353,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-756001538783326208</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-756128433025843200</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-756153001300156416</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-756172674531942400</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-983744396364480512</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,20 +4431,20 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-660109346915770368</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B308" t="n">
         <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-660117216885477376</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-660467638917660672</t>
+          <t>t-867110157813075968</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-762742863394254850</t>
+          <t>t-867380655289761792</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-867711994765471750</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,20 +4496,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-867724212827545601</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-1001848606427697153</t>
+          <t>t-868084138674454528</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,37 +4522,37 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-868161755167547394</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-694804362510503936</t>
+          <t>t-868563701057679360</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-869251443236249600</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -4561,24 +4561,24 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-853267425386803200</t>
+          <t>t-869321042807988224</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-733752725972746240</t>
+          <t>t-869576732906532865</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,11 +4587,11 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-733764949433012224</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -4600,24 +4600,24 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1044155993779851264</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-939871571342249985</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,46 +4639,46 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-756636337130774528</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-946020250805514240</t>
+          <t>t-744360846420107265</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-1044155993779851264</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,7 +4691,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,20 +4704,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-1029396532313968640</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-1029397392343425024</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,46 +4730,46 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-1029408763877498885</t>
         </is>
       </c>
       <c r="B331" t="n">
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-768829814824247296</t>
+          <t>t-1029408838305361921</t>
         </is>
       </c>
       <c r="B332" t="n">
         <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-768861970195881986</t>
+          <t>t-1029566349918527488</t>
         </is>
       </c>
       <c r="B333" t="n">
         <v>1</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-768886684955975680</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-769194684576960513</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-764984507686490112</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,85 +4808,85 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-783618446827356161</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-784456852864065536</t>
+          <t>t-1042371802121596928</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-781155273763192832</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-785262083638169600</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-797647100565716992</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-797655572573143040</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-803919035318628352</t>
+          <t>t-797814805772046336</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,14 +4925,14 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-804312701002457088</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -4951,33 +4951,33 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-814665332673703936</t>
+          <t>t-1047617270736936962</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-814669018061803521</t>
+          <t>t-891439389787774978</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-891452469061996544</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -5003,33 +5003,33 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-901254745888878592</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-905261367573090305</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-913513656511614977</t>
         </is>
       </c>
       <c r="B354" t="n">
@@ -5042,7 +5042,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B355" t="n">
@@ -5055,20 +5055,20 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-894457279076020224</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-913513656511614977</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B357" t="n">
@@ -5081,24 +5081,24 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
         <v>0</v>
@@ -5107,7 +5107,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-999404160775872512</t>
+          <t>t-927695512287043584</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -5120,20 +5120,20 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1045400324041846785</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-588767869539733506</t>
+          <t>t-970747848747778048</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,76 +5146,76 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-989520576460001280</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-954911597251657728</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-786070938412515329</t>
+          <t>t-650288114116730880</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-786266752061669376</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
         <v>1</v>
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-786287404416135168</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-786588204170346496</t>
+          <t>t-819436418263031808</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,20 +5250,20 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-786674211528015873</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B372" t="n">
@@ -5276,46 +5276,46 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B374" t="n">
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-782797044729741312</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-591229240311439360</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-676836902981513216</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,46 +5341,46 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-522926675542421504</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>0</v>
       </c>
       <c r="C380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-737154199411122176</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,11 +5419,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -5432,24 +5432,24 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C386" t="n">
         <v>0</v>
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-538674754086244353</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,7 +5471,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-538736663154135040</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5523,20 +5523,20 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-642582982285504512</t>
+          <t>t-634983488203177984</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-653264904581984256</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,20 +5562,20 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-653992755027386368</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,20 +5601,20 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B398" t="n">
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,7 +5666,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B403" t="n">
@@ -5679,20 +5679,20 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,33 +5705,33 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-748093412272910336</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B408" t="n">
@@ -5744,7 +5744,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,59 +5770,59 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-809171890690523137</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-1008363588552151040</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-542716499115642881</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B413" t="n">
         <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-722777139469283328</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-1014607937048850434</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,11 +5848,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C417" t="n">
         <v>0</v>
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,11 +5874,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C419" t="n">
         <v>1</v>
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,37 +5900,37 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5939,124 +5939,124 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-831105804946247681</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-1034815239219539970</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-567369806647951362</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,20 +6069,20 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-567639888489500672</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-707530442468098049</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,11 +6095,11 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-707587020831518720</t>
+          <t>t-1060529365962948608</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C436" t="n">
         <v>0</v>
@@ -6108,37 +6108,37 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-652506002957422592</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-979424136656125952</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-560682074529484800</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,46 +6147,46 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-629936150220685312</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-818362228881719296</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-888068991020929025</t>
+          <t>t-818369931054030848</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,37 +6199,37 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-756468934379966464</t>
+          <t>t-818390305326137344</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-818474161949601796</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-818513625468010496</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C446" t="n">
         <v>1</v>
@@ -6238,7 +6238,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-764514429736132609</t>
+          <t>t-818701658280628224</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,20 +6251,20 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-764618483195838464</t>
+          <t>t-818709014498443264</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-819113813505146880</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,7 +6277,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-859839256700882944</t>
+          <t>t-823181666160144384</t>
         </is>
       </c>
       <c r="B450" t="n">
@@ -6290,20 +6290,20 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-860843222091935744</t>
+          <t>t-832880826807418880</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-861496628741640192</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,20 +6316,20 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-972395558735368192</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,24 +6342,24 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6368,20 +6368,20 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,24 +6407,24 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-861227956118716416</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-970012076428193796</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,33 +6446,33 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-590431507967299584</t>
+          <t>t-592904512131768321</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B465" t="n">
@@ -6485,20 +6485,20 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-746801790117646336</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,76 +6524,76 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-746821154074206210</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B469" t="n">
         <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-877183876254269441</t>
+          <t>t-743905323543629825</t>
         </is>
       </c>
       <c r="B470" t="n">
         <v>1</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-877213422538158080</t>
+          <t>t-948800001890713600</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1050165943790460929</t>
+          <t>t-949260261575229441</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-594811114661228544</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-595126127343116288</t>
+          <t>t-608689054549471232</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
         <v>1</v>
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,24 +6628,24 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-940349476509814789</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>1</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-610036486059200513</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
         <v>1</v>
@@ -6654,46 +6654,46 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>1</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-633506882188021761</t>
         </is>
       </c>
       <c r="B482" t="n">
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-916986223478140928</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-899696948046856192</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,20 +6732,20 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-1035170375703961601</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-1035201829989056512</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,33 +6758,33 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-1035614467998998530</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1008697922366689285</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-669879511748579329</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-1018847155090542593</t>
+          <t>t-670195512713330689</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-643112220348534784</t>
+          <t>t-784413747376893952</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,11 +6836,11 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-685089211784019968</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,33 +6875,33 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-950677684811640833</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,40 +6914,40 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-715965241637470208</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
@@ -6979,33 +6979,33 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-743471999876472833</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B505" t="n">
         <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-737976116753883136</t>
+          <t>t-956876178509516800</t>
         </is>
       </c>
       <c r="B506" t="n">
@@ -7018,63 +7018,63 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-738434736910176256</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-956210090935312384</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B508" t="n">
         <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-956914853922459649</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-957307123943256064</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-745170424456052736</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
@@ -7083,20 +7083,20 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-739230360207261700</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-740264154712449024</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,7 +7109,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-1006391548668514309</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,46 +7122,46 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-1006459221448318981</t>
+          <t>t-824202245172592640</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-738762935133188098</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B516" t="n">
         <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-906057103172923392</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,11 +7174,11 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-740256345773985793</t>
+          <t>t-793504441022504960</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
         <v>1</v>
@@ -7187,72 +7187,72 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-803544744215384064</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-753159226390962176</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-801835115894755328</t>
+          <t>t-906552804285861889</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,24 +7265,24 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-806105457077186561</t>
+          <t>t-834086991646048256</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-806175022247280641</t>
+          <t>t-834349788053266432</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
         <v>0</v>
@@ -7291,11 +7291,11 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-806834354802438144</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C528" t="n">
         <v>1</v>
@@ -7304,24 +7304,24 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -7330,11 +7330,11 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-960991499604328448</t>
+          <t>t-852631745438601216</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
         <v>1</v>
@@ -7343,7 +7343,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-844564313012670464</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,46 +7356,46 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-1019231079817973760</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-859444598309097473</t>
+          <t>t-875285232924188672</t>
         </is>
       </c>
       <c r="B536" t="n">
@@ -7408,7 +7408,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-859536182866317312</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,7 +7421,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-991783836206936065</t>
+          <t>t-953919004132986880</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,7 +7434,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-883552231022366723</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,11 +7447,11 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C540" t="n">
         <v>1</v>
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-986982915262308353</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,24 +7473,24 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
         <v>1</v>
@@ -7499,7 +7499,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-666296658595069952</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-666325159947563008</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,33 +7525,33 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-678069780989870080</t>
         </is>
       </c>
       <c r="B547" t="n">
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,33 +7564,33 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-512537797442273280</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-988323500330045442</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B550" t="n">
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,7 +7603,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,20 +7616,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B553" t="n">
         <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-627052129107087360</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,33 +7642,33 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-627062516095455232</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-627070573118488576</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-627075912631083008</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,76 +7681,76 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-627076573653561344</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-629559315221737472</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-664426560234110976</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B560" t="n">
         <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-686071224749821953</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,24 +7759,24 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-785398387059269632</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C565" t="n">
         <v>1</v>
@@ -7785,24 +7785,24 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
         <v>1</v>
@@ -7811,20 +7811,20 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-645961089671405568</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,11 +7837,11 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C570" t="n">
         <v>1</v>
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,33 +7863,33 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,7 +7915,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B576" t="n">
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,20 +7967,20 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B580" t="n">
         <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,20 +8019,20 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B584" t="n">
         <v>1</v>
       </c>
       <c r="C584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,20 +8058,20 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,11 +8084,11 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -8097,11 +8097,11 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-925890248541794304</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C590" t="n">
         <v>0</v>
@@ -8110,33 +8110,33 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-994075228354510848</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,11 +8149,11 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -8175,11 +8175,11 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,11 +8188,11 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-710310372985741313</t>
+          <t>t-910155731134853120</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
         <v>1</v>
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-718742884065759233</t>
+          <t>t-910165111620329472</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,33 +8240,33 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-985916719981060097</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-985984041508720641</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,46 +8279,46 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-587184590302814208</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,20 +8396,20 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-587194258815221760</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-587194893052747777</t>
+          <t>t-509160710316650496</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,11 +8422,11 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-645905787584274433</t>
+          <t>t-509293535221145601</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,11 +8435,11 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-645928760433246209</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-645952188204761088</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-646249606892797957</t>
+          <t>t-732742567545077761</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,33 +8474,33 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-732880819631460356</t>
         </is>
       </c>
       <c r="B619" t="n">
         <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-732926405818753025</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-799522784040849408</t>
+          <t>t-733131015837745153</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,33 +8513,33 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-733131209660735493</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-733188233803128832</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-733201290151514113</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,50 +8552,50 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-960348165114273792</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
         <v>1</v>
@@ -8604,20 +8604,20 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-533912579676975104</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-706405441522143232</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-574404715376603136</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,11 +8656,11 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="n">
         <v>1</v>
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-535750936824528896</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-535750956848140288</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,24 +8695,24 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-535751324143341568</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B636" t="n">
         <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-535754365856776193</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-535786478451048448</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,33 +8734,33 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-740813200766214144</t>
         </is>
       </c>
       <c r="B639" t="n">
         <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,7 +8825,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B646" t="n">
@@ -8838,24 +8838,24 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-836823983353909248</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>0</v>
@@ -8864,50 +8864,50 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-802829831633108992</t>
+          <t>t-912888084739641344</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-913276391470227456</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C652" t="n">
         <v>1</v>
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-936830929384828928</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-936988511051292672</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,11 +8955,11 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-964120690952564737</t>
         </is>
       </c>
       <c r="B656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C656" t="n">
         <v>1</v>
@@ -8968,24 +8968,24 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-902843730587115520</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-527311291191263232</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C658" t="n">
         <v>1</v>
@@ -8994,20 +8994,20 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-565428032685740033</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,24 +9046,24 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-716900054133399553</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
         <v>0</v>
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-674974370180239360</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,24 +9098,24 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-697703131493355520</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-698358832959873025</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C668" t="n">
         <v>1</v>
@@ -9124,11 +9124,11 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-621352736672473089</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-557096941750743040</t>
+          <t>t-621526313216536576</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-816403303852425216</t>
+          <t>t-621967424384925696</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-737185619730780161</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,11 +9176,11 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C673" t="n">
         <v>1</v>
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,7 +9202,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B675" t="n">
@@ -9215,7 +9215,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-780295387017949184</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,11 +9267,11 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C680" t="n">
         <v>1</v>
@@ -9280,46 +9280,46 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-744191847128436736</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-534323907642142720</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,24 +9332,24 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B685" t="n">
         <v>1</v>
       </c>
       <c r="C685" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-787902147698450432</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C686" t="n">
         <v>1</v>
@@ -9358,24 +9358,24 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-787981561949921280</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-820620984231174145</t>
+          <t>t-961453081543065600</t>
         </is>
       </c>
       <c r="B688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C688" t="n">
         <v>1</v>
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-966989390873378816</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-607931728045338625</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,11 +9436,11 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-692022677649797120</t>
+          <t>t-708854826730295296</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,50 +9475,50 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-597692277847298049</t>
+          <t>t-987943018454962177</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-812248571802025984</t>
+          <t>t-567587172367077376</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-809685070428524546</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-993018034288705536</t>
+          <t>t-930542567199997958</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-908138128514437120</t>
+          <t>t-1039555557609201664</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,11 +9540,11 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B701" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C701" t="n">
         <v>1</v>
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-556107639625510912</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,33 +9566,33 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-599804476774436864</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-814411097864159233</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-808956641743732736</t>
+          <t>t-814414402203983872</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-809733108471889920</t>
+          <t>t-814417111921479680</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-954254379967660032</t>
+          <t>t-814418757657296896</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-814543705935736832</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,20 +9657,20 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-978443713629204480</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,59 +9683,59 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-978559522900910080</t>
+          <t>t-940363500475465728</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-561946682707812352</t>
         </is>
       </c>
       <c r="B713" t="n">
         <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-620194547256029184</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-642718104875732992</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B715" t="n">
         <v>1</v>
       </c>
       <c r="C715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,46 +9748,46 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-720546793344270336</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B718" t="n">
         <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-997052112126136320</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-833819761821757440</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,50 +9800,50 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-1016913242839367680</t>
         </is>
       </c>
       <c r="B722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C722" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C723" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-572370799971053568</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,11 +9852,11 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-691264325659422721</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
         <v>1</v>
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-935417453286326277</t>
+          <t>t-691280497184362497</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-796860246736052224</t>
+          <t>t-702431733740920832</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-702439207684464640</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-797677972547219456</t>
         </is>
       </c>
       <c r="B731" t="n">
@@ -9943,13 +9943,26 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-798490523820380160</t>
+          <t>t-816256005461987328</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>t-928096679089209344</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>0</v>
+      </c>
+      <c r="C733" t="n">
         <v>1</v>
       </c>
     </row>
